--- a/public/downloads/eu-records/NON-TESTED-FP-CLASSIC-RAW.xlsx
+++ b/public/downloads/eu-records/NON-TESTED-FP-CLASSIC-RAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COMONWELTH &amp; EUROPEN RECORDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E15B3CC-BB7F-49E4-A4AF-9400F50EF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982505EC-FF4B-4BD0-AD44-F34C0E0577AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="WOMEN OPEN" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="209">
   <si>
     <t>Weight</t>
   </si>
@@ -319,9 +319,6 @@
     <t>752.5KG</t>
   </si>
   <si>
-    <t xml:space="preserve">GULSHAN </t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -331,12 +328,6 @@
     <t>122.5KG</t>
   </si>
   <si>
-    <t>207.5KG</t>
-  </si>
-  <si>
-    <t>510.0KG</t>
-  </si>
-  <si>
     <t>NADIA OTTER</t>
   </si>
   <si>
@@ -446,12 +437,246 @@
   </si>
   <si>
     <t>332.5KG</t>
+  </si>
+  <si>
+    <t>JASON BRODIE</t>
+  </si>
+  <si>
+    <t>WPU EUR GB</t>
+  </si>
+  <si>
+    <t>113.0KG</t>
+  </si>
+  <si>
+    <t>125.0KG</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>297.5KG</t>
+  </si>
+  <si>
+    <t>MUKESH SINGH#1</t>
+  </si>
+  <si>
+    <t>260.0KG</t>
+  </si>
+  <si>
+    <t>190.0KG</t>
+  </si>
+  <si>
+    <t>710.0KG</t>
+  </si>
+  <si>
+    <t>SHARON NAGLE</t>
+  </si>
+  <si>
+    <t>80.0KG</t>
+  </si>
+  <si>
+    <t>40.0KG</t>
+  </si>
+  <si>
+    <t>100.0KG</t>
+  </si>
+  <si>
+    <t>220.0KG</t>
+  </si>
+  <si>
+    <t>GATIS KEISS</t>
+  </si>
+  <si>
+    <t>185.0KG</t>
+  </si>
+  <si>
+    <t>210.0KG</t>
+  </si>
+  <si>
+    <t>517.5KG</t>
+  </si>
+  <si>
+    <t>DANIELLE MC KINNEY</t>
+  </si>
+  <si>
+    <t>255.0KG</t>
+  </si>
+  <si>
+    <t>SEAMUS KIRWAN</t>
+  </si>
+  <si>
+    <t>620.0KG</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>PATRICIA PAGE</t>
+  </si>
+  <si>
+    <t>100.0K</t>
+  </si>
+  <si>
+    <t>50.0KG</t>
+  </si>
+  <si>
+    <t>290.0KG</t>
+  </si>
+  <si>
+    <t>WAYNE COX</t>
+  </si>
+  <si>
+    <t>211.0KG</t>
+  </si>
+  <si>
+    <t>245.0KG</t>
+  </si>
+  <si>
+    <t>555.5KG</t>
+  </si>
+  <si>
+    <t>STEPHEN CASEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WPU EUR GB</t>
+  </si>
+  <si>
+    <t>152.5KG</t>
+  </si>
+  <si>
+    <t>652.5KG</t>
+  </si>
+  <si>
+    <t>RICHARD GILLISON</t>
+  </si>
+  <si>
+    <t>226.0KG</t>
+  </si>
+  <si>
+    <t>231.0KG</t>
+  </si>
+  <si>
+    <t>601.5KG</t>
+  </si>
+  <si>
+    <t>HAYLEY NUTTALL</t>
+  </si>
+  <si>
+    <t>105.0KG</t>
+  </si>
+  <si>
+    <t>62.5GK</t>
+  </si>
+  <si>
+    <t>131.0KG</t>
+  </si>
+  <si>
+    <t>298.5KG</t>
+  </si>
+  <si>
+    <t>CLARE MALONE</t>
+  </si>
+  <si>
+    <t>MAARIYAH TAHIR</t>
+  </si>
+  <si>
+    <t>62.5KG</t>
+  </si>
+  <si>
+    <t>337.5KG</t>
+  </si>
+  <si>
+    <t>ALEEM MAJID</t>
+  </si>
+  <si>
+    <t>250.0KG</t>
+  </si>
+  <si>
+    <t>LES ATTEWELL</t>
+  </si>
+  <si>
+    <t>221.0KG</t>
+  </si>
+  <si>
+    <t>265.0KG</t>
+  </si>
+  <si>
+    <t>635.5KG</t>
+  </si>
+  <si>
+    <t>RICK DAVISON</t>
+  </si>
+  <si>
+    <t>JJ DUNNE</t>
+  </si>
+  <si>
+    <t>145.5KG</t>
+  </si>
+  <si>
+    <t>235.5KG</t>
+  </si>
+  <si>
+    <t>566.0KG</t>
+  </si>
+  <si>
+    <t>225.OKG</t>
+  </si>
+  <si>
+    <t>142.5KG</t>
+  </si>
+  <si>
+    <t>612.5KG</t>
+  </si>
+  <si>
+    <t>SEAJN CREGAN</t>
+  </si>
+  <si>
+    <t>147.5KG</t>
+  </si>
+  <si>
+    <t>232.5KG</t>
+  </si>
+  <si>
+    <t>RAINER ALTMAOE</t>
+  </si>
+  <si>
+    <t>602.5KG</t>
+  </si>
+  <si>
+    <t>BILLY HUTCHINSON</t>
+  </si>
+  <si>
+    <t>TARA O'SHAUGHNESSY</t>
+  </si>
+  <si>
+    <t>130.0KG</t>
+  </si>
+  <si>
+    <t>77.5KG</t>
+  </si>
+  <si>
+    <t>372.5KG</t>
+  </si>
+  <si>
+    <t>CARLOS PACREZ#1</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>DIDIER MICHELON</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,9 +776,10 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1276,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1060,7 +1286,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1068,7 +1294,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -1076,41 +1302,93 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1118,7 +1396,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1126,41 +1404,92 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1168,7 +1497,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -1177,88 +1506,88 @@
         <v>7</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="12">
         <v>43282</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E30" s="12">
         <v>43282</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E31" s="12">
         <v>43282</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E32" s="12">
         <v>43282</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1266,7 +1595,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -1274,41 +1603,93 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1316,7 +1697,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -1325,88 +1706,88 @@
         <v>7</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E39" s="12">
         <v>43282</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G39" s="12">
         <v>43282</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40" s="12">
         <v>43282</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" s="12">
         <v>43282</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E42" s="12">
         <v>43282</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="H42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1414,7 +1795,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>16</v>
@@ -1426,7 +1807,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -1436,7 +1817,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -1446,7 +1827,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -1456,7 +1837,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1574,14 +1955,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView topLeftCell="A383" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:H51"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="9" customWidth="1"/>
+    <col min="4" max="5" width="20.125" style="9" customWidth="1"/>
     <col min="6" max="6" width="20.875" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="9"/>
   </cols>
@@ -1605,7 +1985,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
@@ -1902,7 +2282,21 @@
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="D43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1910,7 +2304,21 @@
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="D44" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -1918,7 +2326,21 @@
       <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="D45" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1926,7 +2348,21 @@
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="D46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1942,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="13"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1954,7 +2390,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="13"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1966,7 +2402,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1978,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="13"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1996,7 +2432,6 @@
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -2004,7 +2439,6 @@
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -2012,7 +2446,6 @@
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -2020,7 +2453,6 @@
       <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -2192,33 +2624,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>14</v>
@@ -2227,33 +2659,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>15</v>
@@ -2261,34 +2693,94 @@
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>16</v>
@@ -2296,34 +2788,94 @@
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>17</v>
@@ -2331,38 +2883,34 @@
       <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>18</v>
@@ -2370,38 +2918,34 @@
       <c r="C105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>19</v>
@@ -2410,33 +2954,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>20</v>
@@ -2444,38 +2988,34 @@
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>21</v>
@@ -2484,35 +3024,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>0</v>
@@ -2521,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>6</v>
@@ -2530,14 +3070,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
@@ -2656,12 +3196,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>14</v>
@@ -2669,34 +3209,94 @@
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E147" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D148" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D149" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E149" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>15</v>
@@ -2704,38 +3304,34 @@
       <c r="C151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="11"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="11"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="11"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="11"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>16</v>
@@ -2743,38 +3339,94 @@
       <c r="C156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="11"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D156" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E156" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="11"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D157" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E157" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="11"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D158" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="11"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D159" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>17</v>
@@ -2782,34 +3434,94 @@
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D161" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E161" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D162" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E162" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D163" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E163" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D164" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E164" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>18</v>
@@ -2817,38 +3529,34 @@
       <c r="C166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="11"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="11"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="11"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="11"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>19</v>
@@ -2856,34 +3564,94 @@
       <c r="C171" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D171" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E171" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D172" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E172" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D173" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E173" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E174" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>20</v>
@@ -2891,38 +3659,34 @@
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="11"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E178" s="11"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="11"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>21</v>
@@ -2931,40 +3695,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>0</v>
@@ -2973,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
         <v>6</v>
@@ -2982,28 +3746,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3234,26 +3998,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
         <v>18</v>
@@ -3262,33 +4026,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>19</v>
@@ -3297,33 +4061,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
         <v>20</v>
@@ -3331,38 +4095,34 @@
       <c r="C238" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="11"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E239" s="11"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E240" s="11"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="11"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>21</v>
@@ -3371,40 +4131,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
         <v>0</v>
@@ -3413,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="1" t="s">
         <v>6</v>
@@ -3422,33 +4182,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="1" t="s">
         <v>11</v>
@@ -3457,7 +4217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
@@ -5572,15 +6332,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5776,7 +6537,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5785,7 +6546,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -5793,45 +6554,89 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5840,7 +6645,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
@@ -5848,89 +6653,91 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="13">
         <v>43282</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="13">
         <v>43282</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>112</v>
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="16">
-        <v>43282</v>
-      </c>
+      <c r="D25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="I25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="16">
-        <v>43282</v>
-      </c>
+      <c r="D26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="I26">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5939,7 +6746,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
@@ -5948,88 +6755,92 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="13">
-        <v>45109</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="I28">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="13">
-        <v>45109</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="I29">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="13">
-        <v>45109</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="I30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="13">
-        <v>45109</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6059,7 +6870,7 @@
         <v>88</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6081,7 +6892,7 @@
         <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6103,7 +6914,7 @@
         <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6125,7 +6936,7 @@
         <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6146,19 +6957,19 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="13">
         <v>43282</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6168,19 +6979,19 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E39" s="13">
         <v>43282</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6190,19 +7001,19 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E40" s="13">
         <v>43282</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -6212,19 +7023,19 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E41" s="13">
         <v>43282</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -6343,11 +7154,21 @@
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -6355,11 +7176,21 @@
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -6367,11 +7198,21 @@
       <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -6379,11 +7220,21 @@
       <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -6403,19 +7254,19 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E53" s="13">
         <v>43282</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -6425,19 +7276,19 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E54" s="13">
         <v>43282</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,19 +7298,19 @@
         <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E55" s="13">
         <v>43282</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -6469,19 +7320,19 @@
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E56" s="13">
         <v>43282</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -6502,19 +7353,19 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E58" s="13">
         <v>43282</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -6524,19 +7375,19 @@
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E59" s="13">
         <v>43282</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -6546,19 +7397,19 @@
         <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" s="13">
         <v>43282</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6568,19 +7419,19 @@
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E61" s="13">
         <v>43282</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -7153,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:H487"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A488" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7557,19 +8408,19 @@
         <v>7</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E48" s="11">
         <v>43282</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -7579,19 +8430,19 @@
         <v>8</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E49" s="11">
         <v>43282</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7601,19 +8452,19 @@
         <v>9</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E50" s="11">
         <v>43282</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -7623,19 +8474,19 @@
         <v>10</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E51" s="11">
         <v>43282</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -8048,16 +8899,16 @@
         <v>7</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E95" s="11">
         <v>43282</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>77</v>
@@ -8070,13 +8921,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E96" s="11">
         <v>43282</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>83</v>
@@ -8092,16 +8943,16 @@
         <v>9</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E97" s="11">
         <v>43282</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>77</v>
@@ -8114,13 +8965,13 @@
         <v>10</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E98" s="11">
         <v>43282</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G98" s="9">
         <v>337.5</v>
@@ -8143,7 +8994,21 @@
       <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E100" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
@@ -8151,7 +9016,21 @@
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="10"/>
+      <c r="D101" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
@@ -8159,7 +9038,21 @@
       <c r="C102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="10"/>
+      <c r="D102" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
@@ -8167,7 +9060,21 @@
       <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="10"/>
+      <c r="D103" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" s="9">
+        <v>2015</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
@@ -11274,7 +12181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
@@ -12878,7 +13785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="H50" workbookViewId="0">
+    <sheetView topLeftCell="H23" workbookViewId="0">
       <selection activeCell="K28" sqref="K28:N32"/>
     </sheetView>
   </sheetViews>
@@ -14318,10 +15225,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E31"/>
+    <sheetView topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14533,7 +15440,21 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="D23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23">
+        <v>2015</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -14541,7 +15462,21 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="D24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24">
+        <v>2015</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -14549,7 +15484,21 @@
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="D25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>2015</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -14557,7 +15506,21 @@
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="D26" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>2015</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -14574,19 +15537,19 @@
         <v>7</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="14">
         <v>43282</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -14596,19 +15559,19 @@
         <v>8</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E29" s="14">
         <v>43282</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -14618,19 +15581,19 @@
         <v>9</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E30" s="14">
         <v>43282</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -14640,19 +15603,19 @@
         <v>10</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E31" s="14">
         <v>43282</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14661,7 +15624,7 @@
       <c r="C32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>16</v>
@@ -14669,43 +15632,99 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D34" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="E34" s="14"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D35" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="E35" s="14"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D36" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="E36" s="14"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -14715,7 +15734,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -14723,7 +15742,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -14731,7 +15750,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -14739,13 +15758,13 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -14755,7 +15774,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -14763,7 +15782,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -14771,7 +15790,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -14779,13 +15798,13 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -14793,43 +15812,95 @@
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2015</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="14">
+        <v>2015</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2015</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="14">
+        <v>2015</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>20</v>
@@ -14839,7 +15910,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
@@ -14847,7 +15918,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -14855,7 +15926,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
@@ -14863,13 +15934,13 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>21</v>
@@ -14879,7 +15950,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -14887,7 +15958,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -14895,7 +15966,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
@@ -14903,14 +15974,14 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -14923,7 +15994,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>6</v>
@@ -15578,10 +16649,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15776,7 +16847,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -15785,7 +16856,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -15793,45 +16864,93 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -15840,7 +16959,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -15853,7 +16972,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -15864,7 +16983,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -15875,7 +16994,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -15886,7 +17005,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -15895,7 +17014,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -15908,7 +17027,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -15919,7 +17038,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -15930,7 +17049,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -15941,7 +17060,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -15950,7 +17069,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -15958,45 +17077,91 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16005,7 +17170,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -16018,7 +17183,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -16029,7 +17194,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -16040,7 +17205,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -16051,7 +17216,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -16060,7 +17225,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>16</v>
@@ -16073,7 +17238,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -16084,7 +17249,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -16095,7 +17260,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -16106,7 +17271,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -16115,7 +17280,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>38</v>
